--- a/www/ig/fhir/mesures/3.0.0/StructureDefinition-mes-observation-head-circumference.xlsx
+++ b/www/ig/fhir/mesures/3.0.0/StructureDefinition-mes-observation-head-circumference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T16:32:25+01:00</t>
+    <t>2023-03-23T15:01:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
